--- a/data/roster_pitt.xlsx
+++ b/data/roster_pitt.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Pitt League Rosters" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Rosters" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/roster_pitt.xlsx
+++ b/data/roster_pitt.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>80.93000000000001</v>
+        <v>94.94</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -539,14 +539,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>95.65000000000001</v>
+        <v>96</v>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -577,19 +577,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>11.23</v>
+        <v>20.51</v>
       </c>
       <c r="H4" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>78.64</v>
+        <v>93.13</v>
       </c>
       <c r="H5" t="n">
         <v>2</v>
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>7.31</v>
+        <v>6.83</v>
       </c>
       <c r="H6" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -715,10 +715,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>60.6</v>
+        <v>56.67</v>
       </c>
       <c r="H7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -749,19 +749,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>19.37</v>
+        <v>25.35</v>
       </c>
       <c r="H8" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -797,14 +797,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>74.43000000000001</v>
+        <v>61.96</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>20.87</v>
+        <v>26.01</v>
       </c>
       <c r="H10" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -887,10 +887,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>39.22</v>
+        <v>35.29</v>
       </c>
       <c r="H11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -930,7 +930,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>83.79000000000001</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
@@ -1016,10 +1016,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.95</v>
+        <v>4.12</v>
       </c>
       <c r="H14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>20.05</v>
+        <v>27.28</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1102,10 +1102,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>13.37</v>
+        <v>8.07</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1145,10 +1145,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>8.779999999999999</v>
+        <v>47.69</v>
       </c>
       <c r="H17" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>18.1</v>
+        <v>24.9</v>
       </c>
       <c r="H18" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1231,10 +1231,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>14.04</v>
+        <v>16.88</v>
       </c>
       <c r="H19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1274,10 +1274,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>78.75</v>
+        <v>93.98</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1317,10 +1317,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>71.73</v>
+        <v>86.15000000000001</v>
       </c>
       <c r="H21" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1360,10 +1360,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>38.91</v>
+        <v>36.48</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1399,14 +1399,14 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>88.18000000000001</v>
+        <v>88.31</v>
       </c>
       <c r="H23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1446,10 +1446,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>47.54</v>
+        <v>58.11</v>
       </c>
       <c r="H24" t="n">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1489,10 +1489,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>76.87</v>
+        <v>78.56</v>
       </c>
       <c r="H25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>82.62</v>
+        <v>63.09</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1571,14 +1571,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>30.21</v>
+        <v>25.66</v>
       </c>
       <c r="H27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1618,10 +1618,10 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>89.40000000000001</v>
+        <v>87.98999999999999</v>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1661,7 +1661,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1704,10 +1704,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>39.42</v>
+        <v>43.14</v>
       </c>
       <c r="H30" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1747,10 +1747,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>56.88</v>
+        <v>67.98</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>81.44</v>
+        <v>79.63</v>
       </c>
       <c r="H32" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1833,10 +1833,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>16.48</v>
+        <v>17.6</v>
       </c>
       <c r="H33" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1876,10 +1876,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>17.76</v>
+        <v>16.16</v>
       </c>
       <c r="H34" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>53.29</v>
+        <v>55.26</v>
       </c>
       <c r="H35" t="n">
         <v>2</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>47.11</v>
+        <v>52.81</v>
       </c>
       <c r="H36" t="n">
         <v>46</v>
@@ -2005,10 +2005,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>63.77</v>
+        <v>89.04000000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>99.02</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="H38" t="n">
         <v>3</v>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -2091,10 +2091,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>73.04000000000001</v>
+        <v>59.45</v>
       </c>
       <c r="H39" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>8.130000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="H40" t="n">
         <v>41</v>
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>57.09</v>
+        <v>43.65</v>
       </c>
       <c r="H41" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I41" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -2220,10 +2220,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>66.09999999999999</v>
+        <v>63.94</v>
       </c>
       <c r="H42" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
@@ -2263,10 +2263,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>47.36</v>
+        <v>60.14</v>
       </c>
       <c r="H43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -2306,7 +2306,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>84.16</v>
+        <v>73.34</v>
       </c>
       <c r="H44" t="n">
         <v>5</v>
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>35.5</v>
+        <v>30.63</v>
       </c>
       <c r="H45" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2392,10 +2392,10 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>45.71</v>
+        <v>44.92</v>
       </c>
       <c r="H46" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -2435,10 +2435,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>14.45</v>
+        <v>12.77</v>
       </c>
       <c r="H47" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>98.44</v>
+        <v>94.29000000000001</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
@@ -2521,10 +2521,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>67.81</v>
+        <v>63.91</v>
       </c>
       <c r="H49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
@@ -2564,10 +2564,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>73.45999999999999</v>
+        <v>71.06</v>
       </c>
       <c r="H50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2607,10 +2607,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>30.81</v>
+        <v>31.86</v>
       </c>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
@@ -2646,14 +2646,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>15.42</v>
+        <v>9.77</v>
       </c>
       <c r="H52" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>57.19</v>
+        <v>63.76</v>
       </c>
       <c r="H53" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>98.23</v>
+        <v>98.37</v>
       </c>
       <c r="H54" t="n">
         <v>4</v>
@@ -2770,19 +2770,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>25.77</v>
+        <v>27.74</v>
       </c>
       <c r="H55" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>99.40000000000001</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>77.27</v>
+        <v>80.43000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
@@ -2908,10 +2908,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>35.97</v>
+        <v>30.16</v>
       </c>
       <c r="H58" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>24.21</v>
+        <v>22.49</v>
       </c>
       <c r="H59" t="n">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2994,10 +2994,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>82.73999999999999</v>
+        <v>59.78</v>
       </c>
       <c r="H60" t="n">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
@@ -3037,10 +3037,10 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>43.14</v>
+        <v>45.41</v>
       </c>
       <c r="H61" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
@@ -3056,34 +3056,34 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kyler Murray</t>
+          <t>Travis Etienne Jr.</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>26.87</v>
+        <v>56.78</v>
       </c>
       <c r="H62" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
@@ -3099,22 +3099,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Travis Etienne Jr.</t>
+          <t>Deebo Samuel</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -3123,10 +3123,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>45.9</v>
+        <v>60.26</v>
       </c>
       <c r="H63" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
@@ -3142,22 +3142,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Deebo Samuel</t>
+          <t>Drake Maye</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -3166,10 +3166,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>53.71</v>
+        <v>62.42</v>
       </c>
       <c r="H64" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
@@ -3185,22 +3185,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Drake Maye</t>
+          <t>Rashid Shaheed</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -3209,10 +3209,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>60.03</v>
+        <v>16.93</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
@@ -3228,34 +3228,34 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Rashid Shaheed</t>
+          <t>Patriots D/ST</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G66" t="n">
-        <v>24.07</v>
+        <v>65.44</v>
       </c>
       <c r="H66" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
@@ -3271,34 +3271,34 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Patriots D/ST</t>
+          <t>Eddy Pineiro</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G67" t="n">
-        <v>68.70999999999999</v>
+        <v>59.67</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
@@ -3314,22 +3314,22 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Eddy Pineiro</t>
+          <t>Tre Tucker</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3338,10 +3338,10 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>56.7</v>
+        <v>6.71</v>
       </c>
       <c r="H68" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
@@ -3357,17 +3357,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Tre Tucker</t>
+          <t>Dalton Kincaid</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -3381,10 +3381,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>5.1</v>
+        <v>29.04</v>
       </c>
       <c r="H69" t="n">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
@@ -3395,22 +3395,22 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>The Chuban Missile Crisis</t>
+          <t>MayBark Music</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Dalton Kincaid</t>
+          <t>Saquon Barkley</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -3420,18 +3420,18 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G70" t="n">
-        <v>24.87</v>
+        <v>35.55</v>
       </c>
       <c r="H70" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Nathan Fligelman</t>
+          <t>Liam Doherty</t>
         </is>
       </c>
     </row>
@@ -3443,34 +3443,34 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Saquon Barkley</t>
+          <t>Drake London</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>38.37</v>
+        <v>86.64</v>
       </c>
       <c r="H71" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
@@ -3486,34 +3486,34 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Drake London</t>
+          <t>Trey McBride</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>75.33</v>
+        <v>93.54000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
@@ -3529,34 +3529,34 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Trey McBride</t>
+          <t>Garrett Wilson</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>79.68000000000001</v>
+        <v>18.72</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
@@ -3572,34 +3572,34 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Garrett Wilson</t>
+          <t>Baker Mayfield</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>13.61</v>
+        <v>24.34</v>
       </c>
       <c r="H74" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
@@ -3615,22 +3615,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Baker Mayfield</t>
+          <t>Chris Olave</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3639,7 +3639,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>33.3</v>
+        <v>66.91</v>
       </c>
       <c r="H75" t="n">
         <v>9</v>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Chris Olave</t>
+          <t>Jakobi Meyers</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3668,12 +3668,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3682,10 +3682,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>70.01000000000001</v>
+        <v>19.04</v>
       </c>
       <c r="H76" t="n">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jakobi Meyers</t>
+          <t>Javonte Williams</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3725,10 +3725,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>12.44</v>
+        <v>66.12</v>
       </c>
       <c r="H77" t="n">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
@@ -3744,34 +3744,34 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Javonte Williams</t>
+          <t>Chris Godwin Jr.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>84.98999999999999</v>
+        <v>2.15</v>
       </c>
       <c r="H78" t="n">
-        <v>5</v>
+        <v>144</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
@@ -3787,34 +3787,34 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Chris Godwin Jr.</t>
+          <t>Jake Ferguson</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.28</v>
+        <v>61.92</v>
       </c>
       <c r="H79" t="n">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
@@ -3830,34 +3830,34 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Jake Ferguson</t>
+          <t>Lions D/ST</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>79.19</v>
+        <v>81.8</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J.J. McCarthy</t>
+          <t>Jaxson Dart</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3883,12 +3883,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.72</v>
+        <v>49.92</v>
       </c>
       <c r="H81" t="n">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
@@ -3916,34 +3916,34 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Lions D/ST</t>
+          <t>Matthew Stafford</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>70.67</v>
+        <v>39.1</v>
       </c>
       <c r="H82" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
@@ -3959,22 +3959,22 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Jaxson Dart</t>
+          <t>Michael Badgley</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3983,10 +3983,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>43.39</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="H83" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
@@ -4002,22 +4002,22 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Matthew Stafford</t>
+          <t>Troy Franklin</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -4026,10 +4026,10 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>29.73</v>
+        <v>21.57</v>
       </c>
       <c r="H84" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
@@ -4045,34 +4045,34 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Michael Badgley</t>
+          <t>Samaje Perine</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>73.13</v>
+        <v>7.1</v>
       </c>
       <c r="H85" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
@@ -4088,17 +4088,17 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Troy Franklin</t>
+          <t>Tank Bigsby</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4112,10 +4112,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>20.41</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="H86" t="n">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Samaje Perine</t>
+          <t>Terrell Jennings</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.59</v>
+        <v>2.73</v>
       </c>
       <c r="H87" t="n">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
@@ -4169,12 +4169,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MayBark Music</t>
+          <t>Waddle You Doing Step Bo</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tank Bigsby</t>
+          <t>Derrick Henry</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4184,12 +4184,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -4198,14 +4198,14 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.99</v>
+        <v>93.39</v>
       </c>
       <c r="H88" t="n">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>Liam Doherty</t>
+          <t>Charlie Rudolph</t>
         </is>
       </c>
     </row>
@@ -4217,34 +4217,34 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Derrick Henry</t>
+          <t>Tyreek Hill</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>92.54000000000001</v>
+        <v>12.45</v>
       </c>
       <c r="H89" t="n">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Tyreek Hill</t>
+          <t>Davante Adams</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4270,24 +4270,24 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>12.41</v>
+        <v>86.68000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
@@ -4303,17 +4303,17 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Davante Adams</t>
+          <t>D'Andre Swift</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -4323,14 +4323,14 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>70.87</v>
+        <v>32.58</v>
       </c>
       <c r="H91" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
@@ -4346,34 +4346,34 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>D'Andre Swift</t>
+          <t>T.J. Hockenson</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>79.31999999999999</v>
+        <v>50.04</v>
       </c>
       <c r="H92" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
@@ -4389,22 +4389,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>T.J. Hockenson</t>
+          <t>Bo Nix</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -4413,10 +4413,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>50.15</v>
+        <v>51.09</v>
       </c>
       <c r="H93" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
@@ -4432,22 +4432,22 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Bo Nix</t>
+          <t>Jaylen Waddle</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4456,10 +4456,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>53.52</v>
+        <v>71.83</v>
       </c>
       <c r="H94" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
@@ -4475,22 +4475,22 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Jaylen Waddle</t>
+          <t>Jaylen Warren</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4499,10 +4499,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>70.7</v>
+        <v>74.63</v>
       </c>
       <c r="H95" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
@@ -4518,34 +4518,34 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Jaylen Warren</t>
+          <t>Cooper Kupp</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>73.54000000000001</v>
+        <v>7</v>
       </c>
       <c r="H96" t="n">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
@@ -4561,7 +4561,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cooper Kupp</t>
+          <t>Khalil Shakir</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4585,10 +4585,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>12.3</v>
+        <v>37.02</v>
       </c>
       <c r="H97" t="n">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
@@ -4604,22 +4604,22 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Khalil Shakir</t>
+          <t>Dak Prescott</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4628,10 +4628,10 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>35.51</v>
+        <v>44.7</v>
       </c>
       <c r="H98" t="n">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
@@ -4647,17 +4647,17 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Dak Prescott</t>
+          <t>Rachaad White</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4671,10 +4671,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>54.99</v>
+        <v>7.64</v>
       </c>
       <c r="H99" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
@@ -4690,22 +4690,22 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Rachaad White</t>
+          <t>Hunter Henry</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4714,10 +4714,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>21.06</v>
+        <v>31.4</v>
       </c>
       <c r="H100" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
@@ -4733,22 +4733,22 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hunter Henry</t>
+          <t>Rome Odunze</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4757,10 +4757,10 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>33.03</v>
+        <v>68.02</v>
       </c>
       <c r="H101" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
@@ -4776,22 +4776,22 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Nick Folk</t>
+          <t>Woody Marks</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4800,10 +4800,10 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>7.17</v>
+        <v>18.29</v>
       </c>
       <c r="H102" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
@@ -4819,34 +4819,34 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Rome Odunze</t>
+          <t>Raiders D/ST</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>71.02</v>
+        <v>11.75</v>
       </c>
       <c r="H103" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
@@ -4862,22 +4862,22 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Woody Marks</t>
+          <t>Matt Prater</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4886,10 +4886,10 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>22.05</v>
+        <v>24.96</v>
       </c>
       <c r="H104" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
@@ -4900,43 +4900,43 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Waddle You Doing Step Bo</t>
+          <t>Nick's Chubbed</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Buccaneers D/ST</t>
+          <t>Nico Collins</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>14.52</v>
+        <v>79.68000000000001</v>
       </c>
       <c r="H105" t="n">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>Charlie Rudolph</t>
+          <t>Aakash Kottakota</t>
         </is>
       </c>
     </row>
@@ -4948,34 +4948,34 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Nico Collins</t>
+          <t>Christian McCaffrey</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>57.4</v>
+        <v>99.62</v>
       </c>
       <c r="H106" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Christian McCaffrey</t>
+          <t>James Cook III</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>99.61</v>
+        <v>94.34</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
@@ -5034,34 +5034,34 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>James Cook III</t>
+          <t>Jayden Daniels</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>92.28</v>
+        <v>40.99</v>
       </c>
       <c r="H108" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
@@ -5077,17 +5077,17 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Jayden Daniels</t>
+          <t>DJ Moore</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -5101,10 +5101,10 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>36.1</v>
+        <v>40.39</v>
       </c>
       <c r="H109" t="n">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
@@ -5120,34 +5120,34 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DJ Moore</t>
+          <t>Sam LaPorta</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>CHI</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>35.66</v>
+        <v>73.02</v>
       </c>
       <c r="H110" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
@@ -5163,22 +5163,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Sam LaPorta</t>
+          <t>Michael Pittman Jr.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>58.18</v>
+        <v>75.73</v>
       </c>
       <c r="H111" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
@@ -5206,22 +5206,22 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Michael Pittman Jr.</t>
+          <t>Justin Herbert</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5230,10 +5230,10 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>73.43000000000001</v>
+        <v>72.98</v>
       </c>
       <c r="H112" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
@@ -5249,22 +5249,22 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Justin Herbert</t>
+          <t>Nick Chubb</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>HOU</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -5273,10 +5273,10 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>70.48</v>
+        <v>15.73</v>
       </c>
       <c r="H113" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="I113" t="inlineStr">
         <is>
@@ -5292,17 +5292,17 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Nick Chubb</t>
+          <t>Kyle Pitts Sr.</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>HOU</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -5316,10 +5316,10 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>16.29</v>
+        <v>39.35</v>
       </c>
       <c r="H114" t="n">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I114" t="inlineStr">
         <is>
@@ -5335,17 +5335,17 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Kyle Pitts Sr.</t>
+          <t>Eagles D/ST</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -5355,14 +5355,14 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G115" t="n">
-        <v>40.17</v>
+        <v>19.14</v>
       </c>
       <c r="H115" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I115" t="inlineStr">
         <is>
@@ -5378,7 +5378,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Eagles D/ST</t>
+          <t>Packers D/ST</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5388,12 +5388,12 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>36.21</v>
+        <v>67.67</v>
       </c>
       <c r="H116" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I116" t="inlineStr">
         <is>
@@ -5421,34 +5421,34 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Packers D/ST</t>
+          <t>Wan'Dale Robinson</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>65.05</v>
+        <v>50.07</v>
       </c>
       <c r="H117" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I117" t="inlineStr">
         <is>
@@ -5464,22 +5464,22 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Wan'Dale Robinson</t>
+          <t>Bam Knight</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -5488,10 +5488,10 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>48.84</v>
+        <v>32.88</v>
       </c>
       <c r="H118" t="n">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="I118" t="inlineStr">
         <is>
@@ -5507,22 +5507,22 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Bam Knight</t>
+          <t>Chase McLaughlin</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5531,10 +5531,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>30.55</v>
+        <v>30.34</v>
       </c>
       <c r="H119" t="n">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="I119" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Chase McLaughlin</t>
+          <t>Jason Myers</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -5574,10 +5574,10 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>48.13</v>
+        <v>30.15</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I120" t="inlineStr">
         <is>
@@ -5588,27 +5588,27 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Nick's Chubbed</t>
+          <t>Justin got Downs</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Evan McPherson</t>
+          <t>Justin Jefferson</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5617,14 +5617,14 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>13.86</v>
+        <v>96.69</v>
       </c>
       <c r="H121" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>Aakash Kottakota</t>
+          <t>Leon Ruiter</t>
         </is>
       </c>
     </row>
@@ -5636,22 +5636,22 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Justin Jefferson</t>
+          <t>Brock Bowers</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5660,10 +5660,10 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>95.73</v>
+        <v>76.65000000000001</v>
       </c>
       <c r="H122" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I122" t="inlineStr">
         <is>
@@ -5679,22 +5679,22 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Brock Bowers</t>
+          <t>Lamar Jackson</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>BAL</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5703,10 +5703,10 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>52.98</v>
+        <v>79.03</v>
       </c>
       <c r="H123" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I123" t="inlineStr">
         <is>
@@ -5722,34 +5722,34 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Lamar Jackson</t>
+          <t>Omarion Hampton</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>BAL</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>69.11</v>
+        <v>11.77</v>
       </c>
       <c r="H124" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="I124" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Omarion Hampton</t>
+          <t>Breece Hall</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5775,24 +5775,24 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>NYJ</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>12.1</v>
+        <v>30.02</v>
       </c>
       <c r="H125" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I125" t="inlineStr">
         <is>
@@ -5808,22 +5808,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Breece Hall</t>
+          <t>DK Metcalf</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NYJ</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5832,10 +5832,10 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>31.38</v>
+        <v>84.05</v>
       </c>
       <c r="H126" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I126" t="inlineStr">
         <is>
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DK Metcalf</t>
+          <t>Travis Hunter</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5861,24 +5861,24 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>86.25</v>
+        <v>7.77</v>
       </c>
       <c r="H127" t="n">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="I127" t="inlineStr">
         <is>
@@ -5894,7 +5894,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Travis Hunter</t>
+          <t>Stefon Diggs</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5904,7 +5904,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5918,10 +5918,10 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>26.21</v>
+        <v>49.08</v>
       </c>
       <c r="H128" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I128" t="inlineStr">
         <is>
@@ -5937,22 +5937,22 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Stefon Diggs</t>
+          <t>Quinshon Judkins</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5961,10 +5961,10 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>47.68</v>
+        <v>23.24</v>
       </c>
       <c r="H129" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I129" t="inlineStr">
         <is>
@@ -5980,7 +5980,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Quinshon Judkins</t>
+          <t>Trey Benson</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5990,7 +5990,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -6000,14 +6000,14 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>16.99</v>
+        <v>0.61</v>
       </c>
       <c r="H130" t="n">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="I130" t="inlineStr">
         <is>
@@ -6023,34 +6023,34 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Trey Benson</t>
+          <t>Cameron Dicker</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.5</v>
+        <v>95.7</v>
       </c>
       <c r="H131" t="n">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="I131" t="inlineStr">
         <is>
@@ -6066,12 +6066,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Cameron Dicker</t>
+          <t>Quentin Johnston</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -6090,10 +6090,10 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>94.64</v>
+        <v>42.52</v>
       </c>
       <c r="H132" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I132" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Quentin Johnston</t>
+          <t>CeeDee Lamb</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -6119,7 +6119,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -6133,10 +6133,10 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>44.46</v>
+        <v>74.43000000000001</v>
       </c>
       <c r="H133" t="n">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I133" t="inlineStr">
         <is>
@@ -6152,22 +6152,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CeeDee Lamb</t>
+          <t>Tyjae Spears</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -6176,10 +6176,10 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>94.26000000000001</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="H134" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="I134" t="inlineStr">
         <is>
@@ -6195,22 +6195,22 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Tyjae Spears</t>
+          <t>Oronde Gadsden II</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -6219,10 +6219,10 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>12.74</v>
+        <v>54.83</v>
       </c>
       <c r="H135" t="n">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="I135" t="inlineStr">
         <is>
@@ -6238,17 +6238,17 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Oronde Gadsden II</t>
+          <t>Brashard Smith</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6262,10 +6262,10 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>53.57</v>
+        <v>3.83</v>
       </c>
       <c r="H136" t="n">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="I136" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Brashard Smith</t>
+          <t>Kareem Hunt</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6305,10 +6305,10 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.9</v>
+        <v>21.32</v>
       </c>
       <c r="H137" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="I137" t="inlineStr">
         <is>
@@ -6324,34 +6324,34 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Kareem Hunt</t>
+          <t>Jaguars D/ST</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>19.21</v>
+        <v>55.39</v>
       </c>
       <c r="H138" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="I138" t="inlineStr">
         <is>
@@ -6362,43 +6362,43 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Justin got Downs</t>
+          <t>I Chase Brown Kids</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Jaguars D/ST</t>
+          <t>Ja'Marr Chase</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>CIN</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>42.21</v>
+        <v>79.16</v>
       </c>
       <c r="H139" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>Leon Ruiter</t>
+          <t>Justin Gaines</t>
         </is>
       </c>
     </row>
@@ -6410,12 +6410,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Ja'Marr Chase</t>
+          <t>Chase Brown</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -6434,10 +6434,10 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>99.34</v>
+        <v>62.95</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I140" t="inlineStr">
         <is>
@@ -6453,22 +6453,22 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chase Brown</t>
+          <t>Josh Allen</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>CIN</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -6477,10 +6477,10 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>79.09</v>
+        <v>89.73</v>
       </c>
       <c r="H141" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="I141" t="inlineStr">
         <is>
@@ -6496,22 +6496,22 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Josh Allen</t>
+          <t>Kenneth Walker III</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -6520,10 +6520,10 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>86.65000000000001</v>
+        <v>56.93</v>
       </c>
       <c r="H142" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="I142" t="inlineStr">
         <is>
@@ -6539,7 +6539,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Kenneth Walker III</t>
+          <t>TreVeyon Henderson</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6563,10 +6563,10 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>46.97</v>
+        <v>38.76</v>
       </c>
       <c r="H143" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I143" t="inlineStr">
         <is>
@@ -6582,34 +6582,34 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>TreVeyon Henderson</t>
+          <t>Calvin Ridley</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>TEN</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>25.85</v>
+        <v>5.05</v>
       </c>
       <c r="H144" t="n">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="I144" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Calvin Ridley</t>
+          <t>Jameson Williams</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6635,24 +6635,24 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>TEN</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>7.19</v>
+        <v>26.74</v>
       </c>
       <c r="H145" t="n">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I145" t="inlineStr">
         <is>
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Jameson Williams</t>
+          <t>Emeka Egbuka</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6678,7 +6678,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -6692,10 +6692,10 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>18.22</v>
+        <v>27.93</v>
       </c>
       <c r="H146" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="I146" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Emeka Egbuka</t>
+          <t>Ricky Pearsall</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6721,24 +6721,24 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>20.15</v>
+        <v>2.22</v>
       </c>
       <c r="H147" t="n">
-        <v>7</v>
+        <v>69</v>
       </c>
       <c r="I147" t="inlineStr">
         <is>
@@ -6754,34 +6754,34 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Ricky Pearsall</t>
+          <t>Jordan Mason</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>MIN</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.2</v>
+        <v>13.54</v>
       </c>
       <c r="H148" t="n">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I148" t="inlineStr">
         <is>
@@ -6797,17 +6797,17 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Jordan Mason</t>
+          <t>Dallas Goedert</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>MIN</t>
+          <t>PHI</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6821,10 +6821,10 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>20.55</v>
+        <v>16.68</v>
       </c>
       <c r="H149" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I149" t="inlineStr">
         <is>
@@ -6840,34 +6840,34 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Dallas Goedert</t>
+          <t>Broncos D/ST</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>21.86</v>
+        <v>86.09</v>
       </c>
       <c r="H150" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I150" t="inlineStr">
         <is>
@@ -6883,34 +6883,34 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Broncos D/ST</t>
+          <t>Rico Dowdle</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>CAR</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>81.25</v>
+        <v>58.58</v>
       </c>
       <c r="H151" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I151" t="inlineStr">
         <is>
@@ -6926,7 +6926,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Rico Dowdle</t>
+          <t>Kimani Vidal</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6936,12 +6936,12 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6950,10 +6950,10 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>47.6</v>
+        <v>71.23999999999999</v>
       </c>
       <c r="H152" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="I152" t="inlineStr">
         <is>
@@ -6969,22 +6969,22 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Kimani Vidal</t>
+          <t>Cade Otton</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LAC</t>
+          <t>TB</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6993,10 +6993,10 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>74.61</v>
+        <v>3.22</v>
       </c>
       <c r="H153" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="I153" t="inlineStr">
         <is>
@@ -7012,22 +7012,22 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Cade Otton</t>
+          <t>Romeo Doubs</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>TB</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -7036,10 +7036,10 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>9.460000000000001</v>
+        <v>35.36</v>
       </c>
       <c r="H154" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I154" t="inlineStr">
         <is>
@@ -7055,22 +7055,22 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Romeo Doubs</t>
+          <t>Theo Johnson</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -7079,10 +7079,10 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>36.19</v>
+        <v>21.52</v>
       </c>
       <c r="H155" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I155" t="inlineStr">
         <is>
@@ -7098,22 +7098,22 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Theo Johnson</t>
+          <t>Jake Bates</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>DET</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>17.24</v>
+        <v>70.44</v>
       </c>
       <c r="H156" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I156" t="inlineStr">
         <is>
@@ -7136,43 +7136,43 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>I Chase Brown Kids</t>
+          <t>TreyVeyon's Dihhh</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Jake Bates</t>
+          <t>Malik Nabers</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>NYG</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>IR</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>INJURY_RESERVE</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>58.94</v>
+        <v>13.85</v>
       </c>
       <c r="H157" t="n">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>Justin Gaines</t>
+          <t>Luke Rudolph</t>
         </is>
       </c>
     </row>
@@ -7184,7 +7184,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Malik Nabers</t>
+          <t>Brian Thomas Jr.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -7194,24 +7194,24 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>NYG</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>IR</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>INJURY_RESERVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>14.06</v>
+        <v>56.52</v>
       </c>
       <c r="H158" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="I158" t="inlineStr">
         <is>
@@ -7227,34 +7227,34 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Brian Thomas Jr.</t>
+          <t>Kyren Williams</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>45.37</v>
+        <v>89.31</v>
       </c>
       <c r="H159" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I159" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Kyren Williams</t>
+          <t>Alvin Kamara</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -7280,12 +7280,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RB/WR/TE</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -7294,10 +7294,10 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>74.69</v>
+        <v>51.78</v>
       </c>
       <c r="H160" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I160" t="inlineStr">
         <is>
@@ -7313,22 +7313,22 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Alvin Kamara</t>
+          <t>Terry McLaurin</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>WSH</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -7337,10 +7337,10 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>61.57</v>
+        <v>12.21</v>
       </c>
       <c r="H161" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="I161" t="inlineStr">
         <is>
@@ -7356,34 +7356,34 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Terry McLaurin</t>
+          <t>Patrick Mahomes</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>WSH</t>
+          <t>KC</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>OUT</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>25.16</v>
+        <v>81.25</v>
       </c>
       <c r="H162" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="I162" t="inlineStr">
         <is>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Patrick Mahomes</t>
+          <t>Isiah Pacheco</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -7414,19 +7414,19 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>OUT</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>94.27</v>
+        <v>8.27</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I163" t="inlineStr">
         <is>
@@ -7442,17 +7442,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Isiah Pacheco</t>
+          <t>David Njoku</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>KC</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -7462,14 +7462,14 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>21.63</v>
+        <v>17.83</v>
       </c>
       <c r="H164" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I164" t="inlineStr">
         <is>
@@ -7485,34 +7485,34 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>David Njoku</t>
+          <t>Matthew Golden</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>TE</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>21.85</v>
+        <v>10.93</v>
       </c>
       <c r="H165" t="n">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I165" t="inlineStr">
         <is>
@@ -7528,22 +7528,22 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Matthew Golden</t>
+          <t>J.K. Dobbins</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -7552,10 +7552,10 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>14.47</v>
+        <v>55.53</v>
       </c>
       <c r="H166" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I166" t="inlineStr">
         <is>
@@ -7571,34 +7571,34 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>J.K. Dobbins</t>
+          <t>Brock Purdy</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>QB</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>ACTIVE</t>
+          <t>QUESTIONABLE</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>56.75</v>
+        <v>10.07</v>
       </c>
       <c r="H167" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="I167" t="inlineStr">
         <is>
@@ -7614,17 +7614,17 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Brock Purdy</t>
+          <t>Rhamondre Stevenson</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>QB</t>
+          <t>RB</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>NE</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -7638,10 +7638,10 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>16.16</v>
+        <v>16.03</v>
       </c>
       <c r="H168" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I168" t="inlineStr">
         <is>
@@ -7657,34 +7657,34 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Rhamondre Stevenson</t>
+          <t>Darnell Mooney</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>RB</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NE</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>46.85</v>
+        <v>6.02</v>
       </c>
       <c r="H169" t="n">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="I169" t="inlineStr">
         <is>
@@ -7700,34 +7700,34 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Darnell Mooney</t>
+          <t>Rams D/ST</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>LAR</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>RB/WR/TE</t>
+          <t>D/ST</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>QUESTIONABLE</t>
+          <t>NORMAL</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.99</v>
+        <v>80.06999999999999</v>
       </c>
       <c r="H170" t="n">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="I170" t="inlineStr">
         <is>
@@ -7743,22 +7743,22 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Jake Elliott</t>
+          <t>Kendrick Bourne</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>WR</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>PHI</t>
+          <t>SF</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7767,10 +7767,10 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>42.09</v>
+        <v>5.15</v>
       </c>
       <c r="H171" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="I171" t="inlineStr">
         <is>
@@ -7786,34 +7786,34 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Rams D/ST</t>
+          <t>Jonnu Smith</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>D/ST</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>LAR</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>TE</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>NORMAL</t>
+          <t>ACTIVE</t>
         </is>
       </c>
       <c r="G172" t="n">
-        <v>71.18000000000001</v>
+        <v>7.39</v>
       </c>
       <c r="H172" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="I172" t="inlineStr">
         <is>
@@ -7829,22 +7829,22 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Kendrick Bourne</t>
+          <t>Cairo Santos</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>WR</t>
+          <t>K</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>SF</t>
+          <t>CHI</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>K</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7853,55 +7853,12 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>5.22</v>
+        <v>44.51</v>
       </c>
       <c r="H173" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="I173" t="inlineStr">
-        <is>
-          <t>Luke Rudolph</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>TreyVeyon's Dihhh</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>Bears D/ST</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>D/ST</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>D/ST</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>NORMAL</t>
-        </is>
-      </c>
-      <c r="G174" t="n">
-        <v>16.04</v>
-      </c>
-      <c r="H174" t="n">
-        <v>17</v>
-      </c>
-      <c r="I174" t="inlineStr">
         <is>
           <t>Luke Rudolph</t>
         </is>
